--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.729615</v>
+        <v>2.562782333333333</v>
       </c>
       <c r="H2">
-        <v>8.188845000000001</v>
+        <v>7.688347</v>
       </c>
       <c r="I2">
-        <v>0.8986540674935011</v>
+        <v>0.9132775872694281</v>
       </c>
       <c r="J2">
-        <v>0.9300737996692833</v>
+        <v>0.9404640236759205</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N2">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O2">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P2">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q2">
-        <v>2.648784730748333</v>
+        <v>1.091758942172445</v>
       </c>
       <c r="R2">
-        <v>23.839062576735</v>
+        <v>9.825830479552002</v>
       </c>
       <c r="S2">
-        <v>0.03545459250811838</v>
+        <v>0.0219691929434919</v>
       </c>
       <c r="T2">
-        <v>0.04422192899468148</v>
+        <v>0.02381026146365217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.729615</v>
+        <v>2.562782333333333</v>
       </c>
       <c r="H3">
-        <v>8.188845000000001</v>
+        <v>7.688347</v>
       </c>
       <c r="I3">
-        <v>0.8986540674935011</v>
+        <v>0.9132775872694281</v>
       </c>
       <c r="J3">
-        <v>0.9300737996692833</v>
+        <v>0.9404640236759205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P3">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q3">
-        <v>2.842055120823334</v>
+        <v>2.668350171729555</v>
       </c>
       <c r="R3">
-        <v>25.57849608741</v>
+        <v>24.015151545566</v>
       </c>
       <c r="S3">
-        <v>0.03804156110713259</v>
+        <v>0.05369454510432307</v>
       </c>
       <c r="T3">
-        <v>0.04744861229870989</v>
+        <v>0.05819427055851548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.729615</v>
+        <v>2.562782333333333</v>
       </c>
       <c r="H4">
-        <v>8.188845000000001</v>
+        <v>7.688347</v>
       </c>
       <c r="I4">
-        <v>0.8986540674935011</v>
+        <v>0.9132775872694281</v>
       </c>
       <c r="J4">
-        <v>0.9300737996692833</v>
+        <v>0.9404640236759205</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N4">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O4">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P4">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q4">
-        <v>14.11268640863667</v>
+        <v>14.99417481744822</v>
       </c>
       <c r="R4">
-        <v>127.01417767773</v>
+        <v>134.947573357034</v>
       </c>
       <c r="S4">
-        <v>0.188901551720933</v>
+        <v>0.3017240407827471</v>
       </c>
       <c r="T4">
-        <v>0.235613792635621</v>
+        <v>0.3270092041790305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.729615</v>
+        <v>2.562782333333333</v>
       </c>
       <c r="H5">
-        <v>8.188845000000001</v>
+        <v>7.688347</v>
       </c>
       <c r="I5">
-        <v>0.8986540674935011</v>
+        <v>0.9132775872694281</v>
       </c>
       <c r="J5">
-        <v>0.9300737996692833</v>
+        <v>0.9404640236759205</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N5">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O5">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P5">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q5">
-        <v>34.28582053820001</v>
+        <v>6.788223523845667</v>
       </c>
       <c r="R5">
-        <v>205.7149232292</v>
+        <v>40.729341143074</v>
       </c>
       <c r="S5">
-        <v>0.4589235893265397</v>
+        <v>0.136597729203999</v>
       </c>
       <c r="T5">
-        <v>0.3816052203775026</v>
+        <v>0.09869662049198041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.729615</v>
+        <v>2.562782333333333</v>
       </c>
       <c r="H6">
-        <v>8.188845000000001</v>
+        <v>7.688347</v>
       </c>
       <c r="I6">
-        <v>0.8986540674935011</v>
+        <v>0.9132775872694281</v>
       </c>
       <c r="J6">
-        <v>0.9300737996692833</v>
+        <v>0.9404640236759205</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N6">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O6">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P6">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q6">
-        <v>13.24839203349667</v>
+        <v>19.84281803908656</v>
       </c>
       <c r="R6">
-        <v>119.23552830147</v>
+        <v>178.585362351779</v>
       </c>
       <c r="S6">
-        <v>0.1773327728307775</v>
+        <v>0.399292079234867</v>
       </c>
       <c r="T6">
-        <v>0.2211842453627683</v>
+        <v>0.432753666982742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.307833</v>
+        <v>0.243355</v>
       </c>
       <c r="H7">
-        <v>0.6156659999999999</v>
+        <v>0.48671</v>
       </c>
       <c r="I7">
-        <v>0.1013459325064989</v>
+        <v>0.08672241273057199</v>
       </c>
       <c r="J7">
-        <v>0.06992620033071682</v>
+        <v>0.05953597632407945</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9703876666666665</v>
+        <v>0.4260053333333333</v>
       </c>
       <c r="N7">
-        <v>2.911163</v>
+        <v>1.278016</v>
       </c>
       <c r="O7">
-        <v>0.03945299285965206</v>
+        <v>0.02405532912416773</v>
       </c>
       <c r="P7">
-        <v>0.04754668824173518</v>
+        <v>0.02531756756689831</v>
       </c>
       <c r="Q7">
-        <v>0.2987173465929999</v>
+        <v>0.1036705278933333</v>
       </c>
       <c r="R7">
-        <v>1.792304079558</v>
+        <v>0.62202316736</v>
       </c>
       <c r="S7">
-        <v>0.00399840035153368</v>
+        <v>0.002086136180675822</v>
       </c>
       <c r="T7">
-        <v>0.003324759247053713</v>
+        <v>0.001507306103246139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.307833</v>
+        <v>0.243355</v>
       </c>
       <c r="H8">
-        <v>0.6156659999999999</v>
+        <v>0.48671</v>
       </c>
       <c r="I8">
-        <v>0.1013459325064989</v>
+        <v>0.08672241273057199</v>
       </c>
       <c r="J8">
-        <v>0.06992620033071682</v>
+        <v>0.05953597632407945</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.123578</v>
       </c>
       <c r="O8">
-        <v>0.04233170747586662</v>
+        <v>0.05879323641880037</v>
       </c>
       <c r="P8">
-        <v>0.05101596487889641</v>
+        <v>0.06187825274916518</v>
       </c>
       <c r="Q8">
-        <v>0.320513462158</v>
+        <v>0.2533794413966666</v>
       </c>
       <c r="R8">
-        <v>1.923080772948</v>
+        <v>1.52027664838</v>
       </c>
       <c r="S8">
-        <v>0.004290146368734032</v>
+        <v>0.005098691314477302</v>
       </c>
       <c r="T8">
-        <v>0.003567352580186524</v>
+        <v>0.003683982190649702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.307833</v>
+        <v>0.243355</v>
       </c>
       <c r="H9">
-        <v>0.6156659999999999</v>
+        <v>0.48671</v>
       </c>
       <c r="I9">
-        <v>0.1013459325064989</v>
+        <v>0.08672241273057199</v>
       </c>
       <c r="J9">
-        <v>0.06992620033071682</v>
+        <v>0.05953597632407945</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.170211333333333</v>
+        <v>5.850740666666667</v>
       </c>
       <c r="N9">
-        <v>15.510634</v>
+        <v>17.552222</v>
       </c>
       <c r="O9">
-        <v>0.2102049704707969</v>
+        <v>0.3303749538898241</v>
       </c>
       <c r="P9">
-        <v>0.2533280614069559</v>
+        <v>0.3477104875323931</v>
       </c>
       <c r="Q9">
-        <v>1.591561665374</v>
+        <v>1.423806994936667</v>
       </c>
       <c r="R9">
-        <v>9.549369992243999</v>
+        <v>8.54284196962</v>
       </c>
       <c r="S9">
-        <v>0.02130341874986397</v>
+        <v>0.02865091310707702</v>
       </c>
       <c r="T9">
-        <v>0.01771426877133493</v>
+        <v>0.02070128335336268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.307833</v>
+        <v>0.243355</v>
       </c>
       <c r="H10">
-        <v>0.6156659999999999</v>
+        <v>0.48671</v>
       </c>
       <c r="I10">
-        <v>0.1013459325064989</v>
+        <v>0.08672241273057199</v>
       </c>
       <c r="J10">
-        <v>0.06992620033071682</v>
+        <v>0.05953597632407945</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.56068</v>
+        <v>2.648771</v>
       </c>
       <c r="N10">
-        <v>25.12136</v>
+        <v>5.297542</v>
       </c>
       <c r="O10">
-        <v>0.5106788094851177</v>
+        <v>0.1495686865725097</v>
       </c>
       <c r="P10">
-        <v>0.4102956351562577</v>
+        <v>0.1049445996947469</v>
       </c>
       <c r="Q10">
-        <v>3.866591806439999</v>
+        <v>0.644591666705</v>
       </c>
       <c r="R10">
-        <v>15.46636722576</v>
+        <v>2.57836666682</v>
       </c>
       <c r="S10">
-        <v>0.05175522015857793</v>
+        <v>0.01297095736851075</v>
       </c>
       <c r="T10">
-        <v>0.02869041477875518</v>
+        <v>0.006247979202766444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.307833</v>
+        <v>0.243355</v>
       </c>
       <c r="H11">
-        <v>0.6156659999999999</v>
+        <v>0.48671</v>
       </c>
       <c r="I11">
-        <v>0.1013459325064989</v>
+        <v>0.08672241273057199</v>
       </c>
       <c r="J11">
-        <v>0.06992620033071682</v>
+        <v>0.05953597632407945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.853575333333334</v>
+        <v>7.742685666666667</v>
       </c>
       <c r="N11">
-        <v>14.560726</v>
+        <v>23.228057</v>
       </c>
       <c r="O11">
-        <v>0.1973315197085667</v>
+        <v>0.4372077939946981</v>
       </c>
       <c r="P11">
-        <v>0.2378136503161547</v>
+        <v>0.4601490924567965</v>
       </c>
       <c r="Q11">
-        <v>1.494090655586</v>
+        <v>1.884221270411667</v>
       </c>
       <c r="R11">
-        <v>8.964543933516</v>
+        <v>11.30532762247</v>
       </c>
       <c r="S11">
-        <v>0.01999874687778926</v>
+        <v>0.0379157147598311</v>
       </c>
       <c r="T11">
-        <v>0.01662940495338647</v>
+        <v>0.02739542547405448</v>
       </c>
     </row>
   </sheetData>
